--- a/Assets/StaticData/Excel/Store.xlsx
+++ b/Assets/StaticData/Excel/Store.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,6 +45,42 @@
   </si>
   <si>
     <t>1000,1001,1002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define.Scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceneRef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stagePos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1,-0.5,-12,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourcePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/NPC/Cat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -420,15 +456,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="34.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +480,17 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -449,8 +500,17 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1000</v>
       </c>
@@ -459,6 +519,15 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StaticData/Excel/Store.xlsx
+++ b/Assets/StaticData/Excel/Store.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10\Desktop\3dGame\Assets\StaticData\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="11670"/>
   </bookViews>
@@ -68,10 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.1,-0.5,-12,0,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>resourcePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -81,13 +82,17 @@
   </si>
   <si>
     <t>Prefabs/NPC/Cat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1,0.5,-12,0,0,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -165,6 +170,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -212,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,7 +467,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,7 +495,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -507,7 +515,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -524,10 +532,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
